--- a/shinyapp/data/racedems.xlsx
+++ b/shinyapp/data/racedems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D73490C-A25C-7247-922F-1797562F5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016D1C7-F3B4-4943-ACB8-225CC9BCE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4458,6 +4458,11 @@
       </c>
       <c r="I97" s="10">
         <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
